--- a/pasta_final/dados-para-interpolacao_final.xlsx
+++ b/pasta_final/dados-para-interpolacao_final.xlsx
@@ -23158,39 +23158,6 @@
       <c r="A2" s="2">
         <v>40238.0</v>
       </c>
-      <c r="B2" s="45">
-        <v>9.0</v>
-      </c>
-      <c r="C2" s="45">
-        <v>21.6</v>
-      </c>
-      <c r="D2" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="45">
-        <v>84.0</v>
-      </c>
-      <c r="F2" s="45">
-        <v>42.0</v>
-      </c>
-      <c r="G2" s="45">
-        <v>9.46</v>
-      </c>
-      <c r="H2" s="45">
-        <v>141.0</v>
-      </c>
-      <c r="I2" s="45">
-        <v>182.0</v>
-      </c>
-      <c r="J2" s="45">
-        <v>19.18</v>
-      </c>
-      <c r="K2" s="45">
-        <v>278.0</v>
-      </c>
-      <c r="L2" s="45">
-        <v>2402.93</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -23266,6 +23233,39 @@
       <c r="A17" s="2">
         <v>40253.0</v>
       </c>
+      <c r="B17" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="C17" s="45">
+        <v>21.6</v>
+      </c>
+      <c r="D17" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="45">
+        <v>84.0</v>
+      </c>
+      <c r="F17" s="45">
+        <v>42.0</v>
+      </c>
+      <c r="G17" s="45">
+        <v>9.46</v>
+      </c>
+      <c r="H17" s="45">
+        <v>141.0</v>
+      </c>
+      <c r="I17" s="45">
+        <v>182.0</v>
+      </c>
+      <c r="J17" s="45">
+        <v>19.18</v>
+      </c>
+      <c r="K17" s="45">
+        <v>278.0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>2402.93</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -24935,6 +24935,39 @@
       <c r="A298" s="2">
         <v>40534.0</v>
       </c>
+      <c r="B298" s="45">
+        <v>6.51</v>
+      </c>
+      <c r="C298" s="45">
+        <v>21.9</v>
+      </c>
+      <c r="D298" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E298" s="45">
+        <v>57.0</v>
+      </c>
+      <c r="F298" s="45">
+        <v>34.7</v>
+      </c>
+      <c r="G298" s="45">
+        <v>12.2</v>
+      </c>
+      <c r="H298" s="45">
+        <v>496.6</v>
+      </c>
+      <c r="I298" s="45">
+        <v>281.0</v>
+      </c>
+      <c r="J298" s="45">
+        <v>304.7</v>
+      </c>
+      <c r="K298" s="45">
+        <v>12.9</v>
+      </c>
+      <c r="L298" s="45">
+        <v>4259.2</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2">
@@ -24979,39 +25012,6 @@
     <row r="307">
       <c r="A307" s="2">
         <v>40543.0</v>
-      </c>
-      <c r="B307" s="45">
-        <v>6.51</v>
-      </c>
-      <c r="C307" s="45">
-        <v>21.9</v>
-      </c>
-      <c r="D307" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E307" s="45">
-        <v>57.0</v>
-      </c>
-      <c r="F307" s="45">
-        <v>34.7</v>
-      </c>
-      <c r="G307" s="45">
-        <v>12.2</v>
-      </c>
-      <c r="H307" s="45">
-        <v>496.6</v>
-      </c>
-      <c r="I307" s="45">
-        <v>281.0</v>
-      </c>
-      <c r="J307" s="45">
-        <v>304.7</v>
-      </c>
-      <c r="K307" s="45">
-        <v>12.9</v>
-      </c>
-      <c r="L307" s="45">
-        <v>4259.2</v>
       </c>
     </row>
     <row r="308">
@@ -25674,39 +25674,6 @@
       <c r="A2" s="2">
         <v>40238.0</v>
       </c>
-      <c r="B2" s="45">
-        <v>8.3</v>
-      </c>
-      <c r="C2" s="45">
-        <v>21.2</v>
-      </c>
-      <c r="D2" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="E2" s="45">
-        <v>33.0</v>
-      </c>
-      <c r="F2" s="45">
-        <v>27.6</v>
-      </c>
-      <c r="G2" s="45">
-        <v>4.12</v>
-      </c>
-      <c r="H2" s="45">
-        <v>373.0</v>
-      </c>
-      <c r="I2" s="45">
-        <v>182.0</v>
-      </c>
-      <c r="J2" s="45">
-        <v>9.75</v>
-      </c>
-      <c r="K2" s="45">
-        <v>293.0</v>
-      </c>
-      <c r="L2" s="45">
-        <v>1602.41</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -25782,6 +25749,39 @@
       <c r="A17" s="2">
         <v>40253.0</v>
       </c>
+      <c r="B17" s="45">
+        <v>8.3</v>
+      </c>
+      <c r="C17" s="45">
+        <v>21.2</v>
+      </c>
+      <c r="D17" s="45">
+        <v>0.08</v>
+      </c>
+      <c r="E17" s="45">
+        <v>33.0</v>
+      </c>
+      <c r="F17" s="45">
+        <v>27.6</v>
+      </c>
+      <c r="G17" s="45">
+        <v>4.12</v>
+      </c>
+      <c r="H17" s="45">
+        <v>373.0</v>
+      </c>
+      <c r="I17" s="45">
+        <v>182.0</v>
+      </c>
+      <c r="J17" s="45">
+        <v>9.75</v>
+      </c>
+      <c r="K17" s="45">
+        <v>293.0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>1602.41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -27451,6 +27451,39 @@
       <c r="A298" s="2">
         <v>40534.0</v>
       </c>
+      <c r="B298" s="45">
+        <v>6.81</v>
+      </c>
+      <c r="C298" s="45">
+        <v>22.3</v>
+      </c>
+      <c r="D298" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E298" s="45">
+        <v>34.0</v>
+      </c>
+      <c r="F298" s="45">
+        <v>30.0</v>
+      </c>
+      <c r="G298" s="45">
+        <v>15.3</v>
+      </c>
+      <c r="H298" s="45">
+        <v>478.7</v>
+      </c>
+      <c r="I298" s="45">
+        <v>355.1</v>
+      </c>
+      <c r="J298" s="45">
+        <v>448.6</v>
+      </c>
+      <c r="K298" s="45">
+        <v>8.9</v>
+      </c>
+      <c r="L298" s="45">
+        <v>4259.8</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2">
@@ -27495,39 +27528,6 @@
     <row r="307">
       <c r="A307" s="2">
         <v>40543.0</v>
-      </c>
-      <c r="B307" s="45">
-        <v>6.81</v>
-      </c>
-      <c r="C307" s="45">
-        <v>22.3</v>
-      </c>
-      <c r="D307" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E307" s="45">
-        <v>34.0</v>
-      </c>
-      <c r="F307" s="45">
-        <v>30.0</v>
-      </c>
-      <c r="G307" s="45">
-        <v>15.3</v>
-      </c>
-      <c r="H307" s="45">
-        <v>478.7</v>
-      </c>
-      <c r="I307" s="45">
-        <v>355.1</v>
-      </c>
-      <c r="J307" s="45">
-        <v>448.6</v>
-      </c>
-      <c r="K307" s="45">
-        <v>8.9</v>
-      </c>
-      <c r="L307" s="45">
-        <v>4259.8</v>
       </c>
     </row>
     <row r="308">
@@ -28190,39 +28190,6 @@
       <c r="A2" s="2">
         <v>40238.0</v>
       </c>
-      <c r="B2" s="45">
-        <v>8.3</v>
-      </c>
-      <c r="C2" s="45">
-        <v>20.9</v>
-      </c>
-      <c r="D2" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="E2" s="45">
-        <v>49.0</v>
-      </c>
-      <c r="F2" s="45">
-        <v>27.1</v>
-      </c>
-      <c r="G2" s="45">
-        <v>6.66</v>
-      </c>
-      <c r="H2" s="45">
-        <v>359.0</v>
-      </c>
-      <c r="I2" s="45">
-        <v>192.0</v>
-      </c>
-      <c r="J2" s="45">
-        <v>4.97</v>
-      </c>
-      <c r="K2" s="45">
-        <v>306.0</v>
-      </c>
-      <c r="L2" s="45">
-        <v>3216.05</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -28298,6 +28265,39 @@
       <c r="A17" s="2">
         <v>40253.0</v>
       </c>
+      <c r="B17" s="45">
+        <v>8.3</v>
+      </c>
+      <c r="C17" s="45">
+        <v>20.9</v>
+      </c>
+      <c r="D17" s="45">
+        <v>0.09</v>
+      </c>
+      <c r="E17" s="45">
+        <v>49.0</v>
+      </c>
+      <c r="F17" s="45">
+        <v>27.1</v>
+      </c>
+      <c r="G17" s="45">
+        <v>6.66</v>
+      </c>
+      <c r="H17" s="45">
+        <v>359.0</v>
+      </c>
+      <c r="I17" s="45">
+        <v>192.0</v>
+      </c>
+      <c r="J17" s="45">
+        <v>4.97</v>
+      </c>
+      <c r="K17" s="45">
+        <v>306.0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>3216.05</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -29967,6 +29967,39 @@
       <c r="A298" s="2">
         <v>40534.0</v>
       </c>
+      <c r="B298" s="45">
+        <v>6.32</v>
+      </c>
+      <c r="C298" s="45">
+        <v>21.3</v>
+      </c>
+      <c r="D298" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E298" s="45">
+        <v>57.0</v>
+      </c>
+      <c r="F298" s="45">
+        <v>15.5</v>
+      </c>
+      <c r="G298" s="45">
+        <v>22.2</v>
+      </c>
+      <c r="H298" s="45">
+        <v>492.2</v>
+      </c>
+      <c r="I298" s="45">
+        <v>349.6</v>
+      </c>
+      <c r="J298" s="45">
+        <v>441.7</v>
+      </c>
+      <c r="K298" s="45">
+        <v>13.8</v>
+      </c>
+      <c r="L298" s="45">
+        <v>4169.0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2">
@@ -30011,39 +30044,6 @@
     <row r="307">
       <c r="A307" s="2">
         <v>40543.0</v>
-      </c>
-      <c r="B307" s="45">
-        <v>6.32</v>
-      </c>
-      <c r="C307" s="45">
-        <v>21.3</v>
-      </c>
-      <c r="D307" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E307" s="45">
-        <v>57.0</v>
-      </c>
-      <c r="F307" s="45">
-        <v>15.5</v>
-      </c>
-      <c r="G307" s="45">
-        <v>22.2</v>
-      </c>
-      <c r="H307" s="45">
-        <v>492.2</v>
-      </c>
-      <c r="I307" s="45">
-        <v>349.6</v>
-      </c>
-      <c r="J307" s="45">
-        <v>441.7</v>
-      </c>
-      <c r="K307" s="45">
-        <v>13.8</v>
-      </c>
-      <c r="L307" s="45">
-        <v>4169.0</v>
       </c>
     </row>
     <row r="308">
@@ -30706,39 +30706,6 @@
       <c r="A2" s="2">
         <v>40238.0</v>
       </c>
-      <c r="B2" s="45">
-        <v>8.8</v>
-      </c>
-      <c r="C2" s="45">
-        <v>22.7</v>
-      </c>
-      <c r="D2" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="E2" s="45">
-        <v>82.0</v>
-      </c>
-      <c r="F2" s="45">
-        <v>24.2</v>
-      </c>
-      <c r="G2" s="45">
-        <v>3.93</v>
-      </c>
-      <c r="H2" s="45">
-        <v>70.0</v>
-      </c>
-      <c r="I2" s="45">
-        <v>184.0</v>
-      </c>
-      <c r="J2" s="45">
-        <v>4.05</v>
-      </c>
-      <c r="K2" s="45">
-        <v>84.0</v>
-      </c>
-      <c r="L2" s="45">
-        <v>2774.94</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -30814,6 +30781,39 @@
       <c r="A17" s="2">
         <v>40253.0</v>
       </c>
+      <c r="B17" s="45">
+        <v>8.8</v>
+      </c>
+      <c r="C17" s="45">
+        <v>22.7</v>
+      </c>
+      <c r="D17" s="45">
+        <v>0.08</v>
+      </c>
+      <c r="E17" s="45">
+        <v>82.0</v>
+      </c>
+      <c r="F17" s="45">
+        <v>24.2</v>
+      </c>
+      <c r="G17" s="45">
+        <v>3.93</v>
+      </c>
+      <c r="H17" s="45">
+        <v>70.0</v>
+      </c>
+      <c r="I17" s="45">
+        <v>184.0</v>
+      </c>
+      <c r="J17" s="45">
+        <v>4.05</v>
+      </c>
+      <c r="K17" s="45">
+        <v>84.0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>2774.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -32483,6 +32483,39 @@
       <c r="A298" s="2">
         <v>40534.0</v>
       </c>
+      <c r="B298" s="45">
+        <v>6.88</v>
+      </c>
+      <c r="C298" s="45">
+        <v>24.0</v>
+      </c>
+      <c r="D298" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E298" s="45">
+        <v>70.0</v>
+      </c>
+      <c r="F298" s="45">
+        <v>18.2</v>
+      </c>
+      <c r="G298" s="45">
+        <v>14.6</v>
+      </c>
+      <c r="H298" s="45">
+        <v>285.4</v>
+      </c>
+      <c r="I298" s="45">
+        <v>241.9</v>
+      </c>
+      <c r="J298" s="45">
+        <v>168.2</v>
+      </c>
+      <c r="K298" s="45">
+        <v>5.2</v>
+      </c>
+      <c r="L298" s="45">
+        <v>3482.2</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2">
@@ -32527,39 +32560,6 @@
     <row r="307">
       <c r="A307" s="2">
         <v>40543.0</v>
-      </c>
-      <c r="B307" s="45">
-        <v>6.88</v>
-      </c>
-      <c r="C307" s="45">
-        <v>24.0</v>
-      </c>
-      <c r="D307" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E307" s="45">
-        <v>70.0</v>
-      </c>
-      <c r="F307" s="45">
-        <v>18.2</v>
-      </c>
-      <c r="G307" s="45">
-        <v>14.6</v>
-      </c>
-      <c r="H307" s="45">
-        <v>285.4</v>
-      </c>
-      <c r="I307" s="45">
-        <v>241.9</v>
-      </c>
-      <c r="J307" s="45">
-        <v>168.2</v>
-      </c>
-      <c r="K307" s="45">
-        <v>5.2</v>
-      </c>
-      <c r="L307" s="45">
-        <v>3482.2</v>
       </c>
     </row>
     <row r="308">
